--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="116">
   <si>
     <t>washington</t>
   </si>
@@ -25,18 +25,6 @@
     <t>glendale</t>
   </si>
   <si>
-    <t>myrtle beach</t>
-  </si>
-  <si>
-    <t>sacramento</t>
-  </si>
-  <si>
-    <t>philadelphia</t>
-  </si>
-  <si>
-    <t>sarasota</t>
-  </si>
-  <si>
     <t>new york</t>
   </si>
   <si>
@@ -46,33 +34,6 @@
     <t>lexington</t>
   </si>
   <si>
-    <t>jacksonville</t>
-  </si>
-  <si>
-    <t>sanford</t>
-  </si>
-  <si>
-    <t>anchorage</t>
-  </si>
-  <si>
-    <t>hamburg</t>
-  </si>
-  <si>
-    <t>jackson</t>
-  </si>
-  <si>
-    <t>quincy</t>
-  </si>
-  <si>
-    <t>brooklyn</t>
-  </si>
-  <si>
-    <t>elgin</t>
-  </si>
-  <si>
-    <t>lenoir</t>
-  </si>
-  <si>
     <t>bellingham</t>
   </si>
   <si>
@@ -82,45 +43,9 @@
     <t>orlando</t>
   </si>
   <si>
-    <t>kansas city</t>
-  </si>
-  <si>
-    <t>plano</t>
-  </si>
-  <si>
-    <t>alma</t>
-  </si>
-  <si>
-    <t>freeport</t>
-  </si>
-  <si>
-    <t>fall river</t>
-  </si>
-  <si>
     <t>morganton</t>
   </si>
   <si>
-    <t>greenville</t>
-  </si>
-  <si>
-    <t>henderson</t>
-  </si>
-  <si>
-    <t>warner robins</t>
-  </si>
-  <si>
-    <t>lagrange</t>
-  </si>
-  <si>
-    <t>mendota</t>
-  </si>
-  <si>
-    <t>blairsville</t>
-  </si>
-  <si>
-    <t>my salon suites</t>
-  </si>
-  <si>
     <t>elite college of cosmetology</t>
   </si>
   <si>
@@ -437,1251 +362,6 @@
   </si>
   <si>
     <t>480 n state st #f</t>
-  </si>
-  <si>
-    <t>bello capelli salon</t>
-  </si>
-  <si>
-    <t>willowbrook</t>
-  </si>
-  <si>
-    <t>6300  kingery hwy #400c</t>
-  </si>
-  <si>
-    <t>beautiful thing it's a</t>
-  </si>
-  <si>
-    <t>fort myers</t>
-  </si>
-  <si>
-    <t>15961  mcgregor blvd</t>
-  </si>
-  <si>
-    <t>estetica beauty salon</t>
-  </si>
-  <si>
-    <t>fresno</t>
-  </si>
-  <si>
-    <t>3160 e belmont ave</t>
-  </si>
-  <si>
-    <t>aveda environmental lifestyle store inc</t>
-  </si>
-  <si>
-    <t>stetika skin care center</t>
-  </si>
-  <si>
-    <t>6258  presidential ct #203</t>
-  </si>
-  <si>
-    <t>essential skin &amp; beauty</t>
-  </si>
-  <si>
-    <t>elmhurst</t>
-  </si>
-  <si>
-    <t>116 s york st</t>
-  </si>
-  <si>
-    <t>n vs hair</t>
-  </si>
-  <si>
-    <t>scottsdale</t>
-  </si>
-  <si>
-    <t>13802 n scottsdale rd</t>
-  </si>
-  <si>
-    <t>hairloft-mickie hill</t>
-  </si>
-  <si>
-    <t>1716  i st</t>
-  </si>
-  <si>
-    <t>studio nail &amp; spa</t>
-  </si>
-  <si>
-    <t>bastrop</t>
-  </si>
-  <si>
-    <t>747  highway 71</t>
-  </si>
-  <si>
-    <t>doan huu duc</t>
-  </si>
-  <si>
-    <t>1820  benning rd</t>
-  </si>
-  <si>
-    <t>peaches beauty salon</t>
-  </si>
-  <si>
-    <t>3202  parallel pkwy #b</t>
-  </si>
-  <si>
-    <t>west palm beach</t>
-  </si>
-  <si>
-    <t>3804  northlake blvd</t>
-  </si>
-  <si>
-    <t>dianaes hair fashion</t>
-  </si>
-  <si>
-    <t>mount carmel</t>
-  </si>
-  <si>
-    <t>1207  parrish st</t>
-  </si>
-  <si>
-    <t>terra firma salon and spa</t>
-  </si>
-  <si>
-    <t>de soto</t>
-  </si>
-  <si>
-    <t>33160 w 83rd st</t>
-  </si>
-  <si>
-    <t>cc company salon</t>
-  </si>
-  <si>
-    <t>rome</t>
-  </si>
-  <si>
-    <t>214  broad st</t>
-  </si>
-  <si>
-    <t>wellington's hair salon</t>
-  </si>
-  <si>
-    <t>crockett</t>
-  </si>
-  <si>
-    <t>301 n 6th st</t>
-  </si>
-  <si>
-    <t>fashion square barber salon</t>
-  </si>
-  <si>
-    <t>7150 e camelback rd</t>
-  </si>
-  <si>
-    <t>signature too</t>
-  </si>
-  <si>
-    <t>eagle river</t>
-  </si>
-  <si>
-    <t>12110  business blvd</t>
-  </si>
-  <si>
-    <t>gloria's hair boutique</t>
-  </si>
-  <si>
-    <t>1111  highway 290</t>
-  </si>
-  <si>
-    <t>neoi hair design</t>
-  </si>
-  <si>
-    <t>peabody</t>
-  </si>
-  <si>
-    <t>140  main st</t>
-  </si>
-  <si>
-    <t>catalina beauty and shop</t>
-  </si>
-  <si>
-    <t>miami</t>
-  </si>
-  <si>
-    <t>10201 nw 58th st</t>
-  </si>
-  <si>
-    <t>refresh me center for dental &amp; facial rejuvenation</t>
-  </si>
-  <si>
-    <t>307  church st</t>
-  </si>
-  <si>
-    <t>fearless beauty boutique</t>
-  </si>
-  <si>
-    <t>wakefield</t>
-  </si>
-  <si>
-    <t>3  lincoln st</t>
-  </si>
-  <si>
-    <t>so so siddity hair</t>
-  </si>
-  <si>
-    <t>745  santa fe dr</t>
-  </si>
-  <si>
-    <t>the hair people</t>
-  </si>
-  <si>
-    <t>13  murphy hwy</t>
-  </si>
-  <si>
-    <t>norma's beauty salon</t>
-  </si>
-  <si>
-    <t>trenton</t>
-  </si>
-  <si>
-    <t>210 n church st</t>
-  </si>
-  <si>
-    <t>show of hands</t>
-  </si>
-  <si>
-    <t>lynn</t>
-  </si>
-  <si>
-    <t>17  lewis st</t>
-  </si>
-  <si>
-    <t>debbie's hair designs</t>
-  </si>
-  <si>
-    <t>saint elmo</t>
-  </si>
-  <si>
-    <t>215 s main st</t>
-  </si>
-  <si>
-    <t>hair express</t>
-  </si>
-  <si>
-    <t>803  valencia st</t>
-  </si>
-  <si>
-    <t>salon zorina</t>
-  </si>
-  <si>
-    <t>downey</t>
-  </si>
-  <si>
-    <t>8221  3rd st #100</t>
-  </si>
-  <si>
-    <t>v hair studio</t>
-  </si>
-  <si>
-    <t>2609 e ashlan ave</t>
-  </si>
-  <si>
-    <t>zepi's family salon</t>
-  </si>
-  <si>
-    <t>ashton</t>
-  </si>
-  <si>
-    <t>403  richardson ave</t>
-  </si>
-  <si>
-    <t>ana &amp; frances' beauty salon</t>
-  </si>
-  <si>
-    <t>phoenix</t>
-  </si>
-  <si>
-    <t>4108 s central ave</t>
-  </si>
-  <si>
-    <t>michelle salon</t>
-  </si>
-  <si>
-    <t>atascadero</t>
-  </si>
-  <si>
-    <t>5960  entrada ave</t>
-  </si>
-  <si>
-    <t>salon international</t>
-  </si>
-  <si>
-    <t>11800 s cleveland ave</t>
-  </si>
-  <si>
-    <t>exotic beauty salon</t>
-  </si>
-  <si>
-    <t>156 n maple ave</t>
-  </si>
-  <si>
-    <t>hair more inc</t>
-  </si>
-  <si>
-    <t>8923  avenue d</t>
-  </si>
-  <si>
-    <t>styles</t>
-  </si>
-  <si>
-    <t>liberty</t>
-  </si>
-  <si>
-    <t>3391  ky 49</t>
-  </si>
-  <si>
-    <t>hollywood beauty college</t>
-  </si>
-  <si>
-    <t>stockton</t>
-  </si>
-  <si>
-    <t>6506  pacific ave</t>
-  </si>
-  <si>
-    <t>rage salon hair/tanning</t>
-  </si>
-  <si>
-    <t>statesboro</t>
-  </si>
-  <si>
-    <t>10929  us highway 301  #1</t>
-  </si>
-  <si>
-    <t>denean lewis salon</t>
-  </si>
-  <si>
-    <t>930 w parker rd #501</t>
-  </si>
-  <si>
-    <t>pamela's family hair care</t>
-  </si>
-  <si>
-    <t>3245  montezuma rd</t>
-  </si>
-  <si>
-    <t>delphine african hair braiding</t>
-  </si>
-  <si>
-    <t>somerville</t>
-  </si>
-  <si>
-    <t>593  somerville ave</t>
-  </si>
-  <si>
-    <t>nail colors</t>
-  </si>
-  <si>
-    <t>estero</t>
-  </si>
-  <si>
-    <t>10011  estero town commons pl #103</t>
-  </si>
-  <si>
-    <t>elaine's look</t>
-  </si>
-  <si>
-    <t>kaplan</t>
-  </si>
-  <si>
-    <t>1203 n herpin ave</t>
-  </si>
-  <si>
-    <t>sampson valerie</t>
-  </si>
-  <si>
-    <t>132  burt rd</t>
-  </si>
-  <si>
-    <t>609 n montgomery ave</t>
-  </si>
-  <si>
-    <t>patty's cut-n-curl</t>
-  </si>
-  <si>
-    <t>brownsville</t>
-  </si>
-  <si>
-    <t>225 w main st</t>
-  </si>
-  <si>
-    <t>rumors hair salon &amp; spa</t>
-  </si>
-  <si>
-    <t>leawood</t>
-  </si>
-  <si>
-    <t>5029 w 119th st</t>
-  </si>
-  <si>
-    <t>coney island nail's inc</t>
-  </si>
-  <si>
-    <t>3166  coney island ave #2</t>
-  </si>
-  <si>
-    <t>classic image inc</t>
-  </si>
-  <si>
-    <t>safety harbor</t>
-  </si>
-  <si>
-    <t>132  10th ave #104</t>
-  </si>
-  <si>
-    <t>third dimension</t>
-  </si>
-  <si>
-    <t>longview</t>
-  </si>
-  <si>
-    <t>760  ocean beach hwy #a</t>
-  </si>
-  <si>
-    <t>smooth by brittney</t>
-  </si>
-  <si>
-    <t>807 w 12th st</t>
-  </si>
-  <si>
-    <t>la bella vita hair sa</t>
-  </si>
-  <si>
-    <t>garden city</t>
-  </si>
-  <si>
-    <t>937  franklin ave</t>
-  </si>
-  <si>
-    <t>anthony's hair center</t>
-  </si>
-  <si>
-    <t>516 e fireweed ln #1</t>
-  </si>
-  <si>
-    <t>eternal nail and spa</t>
-  </si>
-  <si>
-    <t>337  broadway</t>
-  </si>
-  <si>
-    <t>images beauty salon</t>
-  </si>
-  <si>
-    <t>abbeville</t>
-  </si>
-  <si>
-    <t>104  thomas st</t>
-  </si>
-  <si>
-    <t>destiny hair &amp; nail salon</t>
-  </si>
-  <si>
-    <t>great falls</t>
-  </si>
-  <si>
-    <t>200  central ave</t>
-  </si>
-  <si>
-    <t>more hair bouti que</t>
-  </si>
-  <si>
-    <t>2543 s myrtle ave</t>
-  </si>
-  <si>
-    <t>wild hair a</t>
-  </si>
-  <si>
-    <t>meridian</t>
-  </si>
-  <si>
-    <t>9885  highway 495</t>
-  </si>
-  <si>
-    <t>mane cutters</t>
-  </si>
-  <si>
-    <t>perry</t>
-  </si>
-  <si>
-    <t>1109  washington st #c</t>
-  </si>
-  <si>
-    <t>citrus hills nails</t>
-  </si>
-  <si>
-    <t>hernando</t>
-  </si>
-  <si>
-    <t>2643 n forest ridge blvd</t>
-  </si>
-  <si>
-    <t>the klip joint</t>
-  </si>
-  <si>
-    <t>basehor</t>
-  </si>
-  <si>
-    <t>14201  parallel rd</t>
-  </si>
-  <si>
-    <t>sns nales</t>
-  </si>
-  <si>
-    <t>2507 w schneidman dr</t>
-  </si>
-  <si>
-    <t>donna rolls hair</t>
-  </si>
-  <si>
-    <t>2580  fair oaks blvd</t>
-  </si>
-  <si>
-    <t>vip nails and spa</t>
-  </si>
-  <si>
-    <t>563  lefferts ave</t>
-  </si>
-  <si>
-    <t>kimistry salon inc</t>
-  </si>
-  <si>
-    <t>shreveport</t>
-  </si>
-  <si>
-    <t>8113  jewella ave</t>
-  </si>
-  <si>
-    <t>hair after salon &amp; tanning</t>
-  </si>
-  <si>
-    <t>stanberry</t>
-  </si>
-  <si>
-    <t>915 n alanthus ave</t>
-  </si>
-  <si>
-    <t>platinum cut &amp; curl</t>
-  </si>
-  <si>
-    <t>milan</t>
-  </si>
-  <si>
-    <t>6025  wahl st</t>
-  </si>
-  <si>
-    <t>beauty lifes international</t>
-  </si>
-  <si>
-    <t>temple city</t>
-  </si>
-  <si>
-    <t>5546  rosemead blvd #201</t>
-  </si>
-  <si>
-    <t>salon seventy</t>
-  </si>
-  <si>
-    <t>portola</t>
-  </si>
-  <si>
-    <t>73417  state route 70</t>
-  </si>
-  <si>
-    <t>saturday's family hair care</t>
-  </si>
-  <si>
-    <t>8913  mansfield rd</t>
-  </si>
-  <si>
-    <t>cute nail &amp; spa</t>
-  </si>
-  <si>
-    <t>704  jefferson st</t>
-  </si>
-  <si>
-    <t>hair designs by michelle</t>
-  </si>
-  <si>
-    <t>17224 n 43rd pl</t>
-  </si>
-  <si>
-    <t>cutting trends</t>
-  </si>
-  <si>
-    <t>greeley</t>
-  </si>
-  <si>
-    <t>2627 w 10th st #1</t>
-  </si>
-  <si>
-    <t>hair corral</t>
-  </si>
-  <si>
-    <t>troy</t>
-  </si>
-  <si>
-    <t>105 s main st</t>
-  </si>
-  <si>
-    <t>wave length studios llc</t>
-  </si>
-  <si>
-    <t>bernardsville</t>
-  </si>
-  <si>
-    <t>2  morristown rd</t>
-  </si>
-  <si>
-    <t>verona walk hoa</t>
-  </si>
-  <si>
-    <t>naples</t>
-  </si>
-  <si>
-    <t>8090  sorrento ln #1</t>
-  </si>
-  <si>
-    <t>hair hacienda</t>
-  </si>
-  <si>
-    <t>buckeye</t>
-  </si>
-  <si>
-    <t>418 e monroe ave</t>
-  </si>
-  <si>
-    <t>roselyn's</t>
-  </si>
-  <si>
-    <t>107 s main st</t>
-  </si>
-  <si>
-    <t>tiffany south</t>
-  </si>
-  <si>
-    <t>9319  walker rd</t>
-  </si>
-  <si>
-    <t>valley hair salon</t>
-  </si>
-  <si>
-    <t>honolulu</t>
-  </si>
-  <si>
-    <t>2831  kalihi st #d</t>
-  </si>
-  <si>
-    <t>lena nails</t>
-  </si>
-  <si>
-    <t>bossier city</t>
-  </si>
-  <si>
-    <t>2670  barksdale blvd</t>
-  </si>
-  <si>
-    <t>beyond nails and spa</t>
-  </si>
-  <si>
-    <t>bonita springs</t>
-  </si>
-  <si>
-    <t>28811 s tamiami trl #9</t>
-  </si>
-  <si>
-    <t>robin's hair designs</t>
-  </si>
-  <si>
-    <t>lakeview</t>
-  </si>
-  <si>
-    <t>232  sherman st</t>
-  </si>
-  <si>
-    <t>dominican fashion</t>
-  </si>
-  <si>
-    <t>228  wilson ave</t>
-  </si>
-  <si>
-    <t>donna's cut &amp; curl</t>
-  </si>
-  <si>
-    <t>annville</t>
-  </si>
-  <si>
-    <t>5346  highway 30</t>
-  </si>
-  <si>
-    <t>berger donald w</t>
-  </si>
-  <si>
-    <t>238 s 4th st</t>
-  </si>
-  <si>
-    <t>colourz hair salon</t>
-  </si>
-  <si>
-    <t>1840  prairie city rd</t>
-  </si>
-  <si>
-    <t>chayo's hair studio</t>
-  </si>
-  <si>
-    <t>1601  belvedere rd #1601w</t>
-  </si>
-  <si>
-    <t>staircase hairstyles &amp; beauty supplies</t>
-  </si>
-  <si>
-    <t>humboldt</t>
-  </si>
-  <si>
-    <t>1324 e main st</t>
-  </si>
-  <si>
-    <t>victoria's hair secrets</t>
-  </si>
-  <si>
-    <t>winchester</t>
-  </si>
-  <si>
-    <t>901 w lexington ave</t>
-  </si>
-  <si>
-    <t>the glory hair boutique</t>
-  </si>
-  <si>
-    <t>griffin</t>
-  </si>
-  <si>
-    <t>117 w taylor st</t>
-  </si>
-  <si>
-    <t>angel nails and spa</t>
-  </si>
-  <si>
-    <t>4263 n main st</t>
-  </si>
-  <si>
-    <t>ckp nails</t>
-  </si>
-  <si>
-    <t>1228  royal palm beach blvd</t>
-  </si>
-  <si>
-    <t>new victory nails</t>
-  </si>
-  <si>
-    <t>cambria heights</t>
-  </si>
-  <si>
-    <t>11638  springfield blvd</t>
-  </si>
-  <si>
-    <t>tinas nails design</t>
-  </si>
-  <si>
-    <t>roslindale</t>
-  </si>
-  <si>
-    <t>208  belgrade ave</t>
-  </si>
-  <si>
-    <t>refuge hair salon</t>
-  </si>
-  <si>
-    <t>dawsonville</t>
-  </si>
-  <si>
-    <t>258  beartooth pkwy #120</t>
-  </si>
-  <si>
-    <t>styles &amp; files salon</t>
-  </si>
-  <si>
-    <t>madisonville</t>
-  </si>
-  <si>
-    <t>134  boring st</t>
-  </si>
-  <si>
-    <t>styles of distinction</t>
-  </si>
-  <si>
-    <t>1889  hollywood dr #c</t>
-  </si>
-  <si>
-    <t>regne haute blow dry salon</t>
-  </si>
-  <si>
-    <t>pasadena</t>
-  </si>
-  <si>
-    <t>38 e holly st</t>
-  </si>
-  <si>
-    <t>salon contessa - hair by chely</t>
-  </si>
-  <si>
-    <t>clovis</t>
-  </si>
-  <si>
-    <t>547  bullard ave</t>
-  </si>
-  <si>
-    <t>country chic hair &amp; nail salon</t>
-  </si>
-  <si>
-    <t>rossville</t>
-  </si>
-  <si>
-    <t>444 n main st</t>
-  </si>
-  <si>
-    <t>salon fusion llc</t>
-  </si>
-  <si>
-    <t>oshkosh</t>
-  </si>
-  <si>
-    <t>2100  omro rd</t>
-  </si>
-  <si>
-    <t>portfolio llc</t>
-  </si>
-  <si>
-    <t>morgantown</t>
-  </si>
-  <si>
-    <t>1163  greenbag rd</t>
-  </si>
-  <si>
-    <t>beauty super center inc</t>
-  </si>
-  <si>
-    <t>1670  45th st</t>
-  </si>
-  <si>
-    <t>sassy &amp; chic salon</t>
-  </si>
-  <si>
-    <t>macon</t>
-  </si>
-  <si>
-    <t>3930  ridge ave</t>
-  </si>
-  <si>
-    <t>essence hair salon</t>
-  </si>
-  <si>
-    <t>214 s bolton st</t>
-  </si>
-  <si>
-    <t>eagles nails</t>
-  </si>
-  <si>
-    <t>494  booth rd</t>
-  </si>
-  <si>
-    <t>lil' bouticue nail care</t>
-  </si>
-  <si>
-    <t>swarthmore</t>
-  </si>
-  <si>
-    <t>14  park ave</t>
-  </si>
-  <si>
-    <t>family hair center</t>
-  </si>
-  <si>
-    <t>henryville</t>
-  </si>
-  <si>
-    <t>402  colonels way</t>
-  </si>
-  <si>
-    <t>the v nail</t>
-  </si>
-  <si>
-    <t>17426  us highway 64</t>
-  </si>
-  <si>
-    <t>janine lauder deva curl certified stylist &amp; hair extensions</t>
-  </si>
-  <si>
-    <t>victorville</t>
-  </si>
-  <si>
-    <t>12421  hesperia rd</t>
-  </si>
-  <si>
-    <t>bare pursuit</t>
-  </si>
-  <si>
-    <t>bridgeport</t>
-  </si>
-  <si>
-    <t>131  state st</t>
-  </si>
-  <si>
-    <t>transition hair &amp; color salon</t>
-  </si>
-  <si>
-    <t>tifton</t>
-  </si>
-  <si>
-    <t>161  love ave</t>
-  </si>
-  <si>
-    <t>sacco hair design</t>
-  </si>
-  <si>
-    <t>malvern</t>
-  </si>
-  <si>
-    <t>109 e king st</t>
-  </si>
-  <si>
-    <t>l &amp; t nails</t>
-  </si>
-  <si>
-    <t>eight mile</t>
-  </si>
-  <si>
-    <t>4411  saint stephens rd</t>
-  </si>
-  <si>
-    <t>design studio</t>
-  </si>
-  <si>
-    <t>3250  kennedy cir #2</t>
-  </si>
-  <si>
-    <t>hair razors salon</t>
-  </si>
-  <si>
-    <t>asheboro</t>
-  </si>
-  <si>
-    <t>415  cooper st #a</t>
-  </si>
-  <si>
-    <t>bridal hair creations by shannon</t>
-  </si>
-  <si>
-    <t>415  broadway st</t>
-  </si>
-  <si>
-    <t>the headquarters beauty shop</t>
-  </si>
-  <si>
-    <t>west liberty</t>
-  </si>
-  <si>
-    <t>639  main st</t>
-  </si>
-  <si>
-    <t>ca nails and spa</t>
-  </si>
-  <si>
-    <t>carmi</t>
-  </si>
-  <si>
-    <t>106  neely cir</t>
-  </si>
-  <si>
-    <t>sincera natural skincare</t>
-  </si>
-  <si>
-    <t>encinitas</t>
-  </si>
-  <si>
-    <t>705 n vulcan ave</t>
-  </si>
-  <si>
-    <t>classic nails carolina forest llc</t>
-  </si>
-  <si>
-    <t>4030  river oaks dr</t>
-  </si>
-  <si>
-    <t>nails came</t>
-  </si>
-  <si>
-    <t>reading</t>
-  </si>
-  <si>
-    <t>1334  green st</t>
-  </si>
-  <si>
-    <t>sage-an organic salon</t>
-  </si>
-  <si>
-    <t>410  four seasons town ctr</t>
-  </si>
-  <si>
-    <t>jan's</t>
-  </si>
-  <si>
-    <t>jefferson</t>
-  </si>
-  <si>
-    <t>1625  main st</t>
-  </si>
-  <si>
-    <t>touch of glory hair salon</t>
-  </si>
-  <si>
-    <t>moultrie</t>
-  </si>
-  <si>
-    <t>700  circle rd</t>
-  </si>
-  <si>
-    <t>the image beauty college</t>
-  </si>
-  <si>
-    <t>avondale</t>
-  </si>
-  <si>
-    <t>515 w western ave</t>
-  </si>
-  <si>
-    <t>lana's beauty bar</t>
-  </si>
-  <si>
-    <t>644  elton st</t>
-  </si>
-  <si>
-    <t>mirror mirror hair salon</t>
-  </si>
-  <si>
-    <t>1357  rigdon rd</t>
-  </si>
-  <si>
-    <t>nelly hair styles</t>
-  </si>
-  <si>
-    <t>9331  tamiami trl #24</t>
-  </si>
-  <si>
-    <t>sitting pretty</t>
-  </si>
-  <si>
-    <t>6316  rising sun ave</t>
-  </si>
-  <si>
-    <t>tonia's hair supply</t>
-  </si>
-  <si>
-    <t>110 n 6th st</t>
-  </si>
-  <si>
-    <t>stonewall hair works</t>
-  </si>
-  <si>
-    <t>stonewall</t>
-  </si>
-  <si>
-    <t>1561  highway 171</t>
-  </si>
-  <si>
-    <t>anns styling salon</t>
-  </si>
-  <si>
-    <t>stanton</t>
-  </si>
-  <si>
-    <t>416 w main st</t>
-  </si>
-  <si>
-    <t>babe hair studio</t>
-  </si>
-  <si>
-    <t>dallas</t>
-  </si>
-  <si>
-    <t>2852  lacompte dr</t>
-  </si>
-  <si>
-    <t>lachelle</t>
-  </si>
-  <si>
-    <t>110 n expressway</t>
-  </si>
-  <si>
-    <t>brow theory</t>
-  </si>
-  <si>
-    <t>irvine</t>
-  </si>
-  <si>
-    <t>14200  culver dr</t>
-  </si>
-  <si>
-    <t>sharmels hair design inc</t>
-  </si>
-  <si>
-    <t>lake worth</t>
-  </si>
-  <si>
-    <t>6578  hypoluxo rd</t>
-  </si>
-  <si>
-    <t>barbs hair improvement</t>
-  </si>
-  <si>
-    <t>11401  podunk ave</t>
-  </si>
-  <si>
-    <t>allure makeup academy</t>
-  </si>
-  <si>
-    <t>oceanside</t>
-  </si>
-  <si>
-    <t>4011  avenida de la plata  #302</t>
-  </si>
-  <si>
-    <t>the hair boutique</t>
-  </si>
-  <si>
-    <t>riverdale</t>
-  </si>
-  <si>
-    <t>1413 w 127th st</t>
-  </si>
-  <si>
-    <t>kahana nails and spa</t>
-  </si>
-  <si>
-    <t>lahaina</t>
-  </si>
-  <si>
-    <t>4310  lower honoapiilani rd #109</t>
-  </si>
-  <si>
-    <t>creating you</t>
-  </si>
-  <si>
-    <t>athens</t>
-  </si>
-  <si>
-    <t>206 e washington ave</t>
-  </si>
-  <si>
-    <t>granite valley hair &amp; nail salon</t>
-  </si>
-  <si>
-    <t>sun city west</t>
-  </si>
-  <si>
-    <t>14755 w r h johnson blvd #110</t>
-  </si>
-  <si>
-    <t>beauty essence inc</t>
-  </si>
-  <si>
-    <t>5617 n 5th st</t>
-  </si>
-  <si>
-    <t>jenny's nail boutique</t>
-  </si>
-  <si>
-    <t>3138 n market st</t>
-  </si>
-  <si>
-    <t>brooke's hair salon</t>
-  </si>
-  <si>
-    <t>wasilla</t>
-  </si>
-  <si>
-    <t>220 e park ave</t>
-  </si>
-  <si>
-    <t>spring nails</t>
-  </si>
-  <si>
-    <t>edinburg</t>
-  </si>
-  <si>
-    <t>1312 w university dr</t>
-  </si>
-  <si>
-    <t>skinterra</t>
-  </si>
-  <si>
-    <t>7950 e redfield rd #220</t>
-  </si>
-  <si>
-    <t>arlene's special touch salon</t>
-  </si>
-  <si>
-    <t>1202  main st</t>
-  </si>
-  <si>
-    <t>meraki hair studio</t>
-  </si>
-  <si>
-    <t>lehighton</t>
-  </si>
-  <si>
-    <t>175  interchange rd</t>
-  </si>
-  <si>
-    <t>little princess spa</t>
-  </si>
-  <si>
-    <t>wellington</t>
-  </si>
-  <si>
-    <t>13873  wellington trce #b14</t>
-  </si>
-  <si>
-    <t>nail it bar</t>
-  </si>
-  <si>
-    <t>live oak</t>
-  </si>
-  <si>
-    <t>9910  broadway</t>
-  </si>
-  <si>
-    <t>the color bar</t>
-  </si>
-  <si>
-    <t>kinston</t>
-  </si>
-  <si>
-    <t>123 w blount st</t>
-  </si>
-  <si>
-    <t>shag missy barr</t>
-  </si>
-  <si>
-    <t>2472  highway 49</t>
-  </si>
-  <si>
-    <t>lifestyles hair studio and day spa</t>
-  </si>
-  <si>
-    <t>145  summit st</t>
-  </si>
-  <si>
-    <t>j flo salon spa and boutique</t>
-  </si>
-  <si>
-    <t>1476  main st</t>
-  </si>
-  <si>
-    <t>fay's hair care</t>
-  </si>
-  <si>
-    <t>1771  white rd</t>
   </si>
 </sst>
 </file>
@@ -2068,8 +748,8 @@
   </sheetPr>
   <dimension ref="A1:G683"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2092,13 +772,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="4"/>
@@ -2107,13 +787,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="4"/>
@@ -2122,13 +802,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="4"/>
@@ -2137,13 +817,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -2152,13 +832,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="4"/>
@@ -2167,13 +847,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="4"/>
@@ -2182,13 +862,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="4"/>
@@ -2197,13 +877,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="4"/>
@@ -2212,13 +892,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="4"/>
@@ -2227,13 +907,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="4"/>
@@ -2242,13 +922,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="4"/>
@@ -2257,13 +937,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="4"/>
@@ -2272,13 +952,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="4"/>
@@ -2287,13 +967,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="4"/>
@@ -2302,13 +982,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="4"/>
@@ -2317,13 +997,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="4"/>
@@ -2332,13 +1012,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="4"/>
@@ -2347,13 +1027,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="4"/>
@@ -2362,13 +1042,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="4"/>
@@ -2377,13 +1057,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="4"/>
@@ -2392,13 +1072,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="4"/>
@@ -2407,13 +1087,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="4"/>
@@ -2422,1961 +1102,1001 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>143</v>
-      </c>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>146</v>
-      </c>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>132</v>
-      </c>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>152</v>
-      </c>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>155</v>
-      </c>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>158</v>
-      </c>
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>160</v>
-      </c>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>163</v>
-      </c>
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>165</v>
-      </c>
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>167</v>
-      </c>
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>169</v>
-      </c>
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>172</v>
-      </c>
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>175</v>
-      </c>
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>178</v>
-      </c>
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>181</v>
-      </c>
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>183</v>
-      </c>
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>186</v>
-      </c>
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>188</v>
-      </c>
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>191</v>
-      </c>
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
     </row>
     <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>194</v>
-      </c>
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
     </row>
     <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>196</v>
-      </c>
+      <c r="A63" s="5"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
     </row>
     <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>199</v>
-      </c>
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>201</v>
-      </c>
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>203</v>
-      </c>
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
     </row>
     <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>206</v>
-      </c>
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>209</v>
-      </c>
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
     </row>
     <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>212</v>
-      </c>
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
     </row>
     <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>214</v>
-      </c>
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>217</v>
-      </c>
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
     </row>
     <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>219</v>
-      </c>
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>222</v>
-      </c>
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
     </row>
     <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>225</v>
-      </c>
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>228</v>
-      </c>
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
     </row>
     <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>230</v>
-      </c>
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
     </row>
     <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>232</v>
-      </c>
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
     </row>
     <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>234</v>
-      </c>
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
     </row>
     <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>237</v>
-      </c>
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
     </row>
     <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>240</v>
-      </c>
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
     </row>
     <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>243</v>
-      </c>
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
     </row>
     <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>245</v>
-      </c>
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
     </row>
     <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>247</v>
-      </c>
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
     </row>
     <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>250</v>
-      </c>
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
     </row>
     <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>253</v>
-      </c>
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>256</v>
-      </c>
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>258</v>
-      </c>
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
     </row>
     <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>259</v>
-      </c>
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
     </row>
     <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>262</v>
-      </c>
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>265</v>
-      </c>
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
     </row>
     <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>267</v>
-      </c>
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
     </row>
     <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>270</v>
-      </c>
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
     </row>
     <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>273</v>
-      </c>
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
     </row>
     <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>275</v>
-      </c>
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
     </row>
     <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>278</v>
-      </c>
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
     </row>
     <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>280</v>
-      </c>
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
     </row>
     <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>282</v>
-      </c>
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
     </row>
     <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>285</v>
-      </c>
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
     </row>
     <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>288</v>
-      </c>
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
     </row>
     <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>290</v>
-      </c>
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
     </row>
     <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>293</v>
-      </c>
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
     </row>
     <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>296</v>
-      </c>
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
     </row>
     <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>299</v>
-      </c>
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
     </row>
     <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>302</v>
-      </c>
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
     </row>
     <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>304</v>
-      </c>
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
     </row>
     <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>306</v>
-      </c>
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
     </row>
     <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>308</v>
-      </c>
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
     </row>
     <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>311</v>
-      </c>
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
     </row>
     <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>314</v>
-      </c>
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
     </row>
     <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>317</v>
-      </c>
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
     </row>
     <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>320</v>
-      </c>
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
     </row>
     <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>323</v>
-      </c>
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
     </row>
     <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>325</v>
-      </c>
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
     </row>
     <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>327</v>
-      </c>
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
     </row>
     <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>329</v>
-      </c>
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
     </row>
     <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>332</v>
-      </c>
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
     </row>
     <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>335</v>
-      </c>
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
     </row>
     <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>338</v>
-      </c>
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
     </row>
     <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>341</v>
-      </c>
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
     </row>
     <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>344</v>
-      </c>
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
     </row>
     <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>346</v>
-      </c>
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
     </row>
     <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>348</v>
-      </c>
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
     </row>
     <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>351</v>
-      </c>
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
     </row>
     <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>354</v>
-      </c>
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
     </row>
     <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>357</v>
-      </c>
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
     </row>
     <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>360</v>
-      </c>
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
     </row>
     <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>362</v>
-      </c>
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
     </row>
     <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>365</v>
-      </c>
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
     </row>
     <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>367</v>
-      </c>
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
     </row>
     <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>369</v>
-      </c>
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
     </row>
     <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>371</v>
-      </c>
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
     </row>
     <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>374</v>
-      </c>
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
     </row>
     <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>377</v>
-      </c>
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
     </row>
     <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>380</v>
-      </c>
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
     </row>
     <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>382</v>
-      </c>
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
     </row>
     <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>384</v>
-      </c>
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
     </row>
     <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>387</v>
-      </c>
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
     </row>
     <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>390</v>
-      </c>
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
     </row>
     <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>393</v>
-      </c>
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
     </row>
     <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>396</v>
-      </c>
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
     </row>
     <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>398</v>
-      </c>
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
     </row>
     <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>401</v>
-      </c>
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
     </row>
     <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>404</v>
-      </c>
+      <c r="A143" s="5"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
     </row>
     <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>407</v>
-      </c>
+      <c r="A144" s="5"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
     </row>
     <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>410</v>
-      </c>
+      <c r="A145" s="5"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
     </row>
     <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>413</v>
-      </c>
+      <c r="A146" s="5"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
     </row>
     <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>415</v>
-      </c>
+      <c r="A147" s="5"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
     </row>
     <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>418</v>
-      </c>
+      <c r="A148" s="5"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
     </row>
     <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>420</v>
-      </c>
+      <c r="A149" s="5"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="7"/>
     </row>
     <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>422</v>
-      </c>
+      <c r="A150" s="5"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
     </row>
     <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>425</v>
-      </c>
+      <c r="A151" s="5"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
     </row>
     <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>428</v>
-      </c>
+      <c r="A152" s="5"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
     </row>
     <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>430</v>
-      </c>
+      <c r="A153" s="5"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="5"/>
     </row>
     <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>433</v>
-      </c>
+      <c r="A154" s="5"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
     </row>
     <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>436</v>
-      </c>
+      <c r="A155" s="5"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
     </row>
     <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>439</v>
-      </c>
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
     </row>
     <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>442</v>
-      </c>
+      <c r="A157" s="5"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
     </row>
     <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>445</v>
-      </c>
+      <c r="A158" s="5"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
     </row>
     <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>447</v>
-      </c>
+      <c r="A159" s="5"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
     </row>
     <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>450</v>
-      </c>
+      <c r="A160" s="5"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
     </row>
     <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>452</v>
-      </c>
+      <c r="A161" s="5"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
     </row>
     <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>455</v>
-      </c>
+      <c r="A162" s="5"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
     </row>
     <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>458</v>
-      </c>
+      <c r="A163" s="5"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
     </row>
     <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>461</v>
-      </c>
+      <c r="A164" s="5"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
     </row>
     <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>463</v>
-      </c>
+      <c r="A165" s="5"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
     </row>
     <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>466</v>
-      </c>
+      <c r="A166" s="5"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
     </row>
     <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C167" s="5" t="s">
-        <v>468</v>
-      </c>
+      <c r="A167" s="5"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
     </row>
     <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="C168" s="5" t="s">
-        <v>471</v>
-      </c>
+      <c r="A168" s="5"/>
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
     </row>
     <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="C169" s="5" t="s">
-        <v>474</v>
-      </c>
+      <c r="A169" s="5"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
     </row>
     <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>477</v>
-      </c>
+      <c r="A170" s="5"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
     </row>
     <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="B171" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="A171" s="5"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="5"/>
     </row>
     <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="B172" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>481</v>
-      </c>
+      <c r="A172" s="5"/>
+      <c r="B172" s="5"/>
+      <c r="C172" s="5"/>
     </row>
     <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="C173" s="5" t="s">
-        <v>483</v>
-      </c>
+      <c r="A173" s="5"/>
+      <c r="B173" s="5"/>
+      <c r="C173" s="5"/>
     </row>
     <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>485</v>
-      </c>
+      <c r="A174" s="5"/>
+      <c r="B174" s="5"/>
+      <c r="C174" s="5"/>
     </row>
     <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>487</v>
-      </c>
+      <c r="A175" s="5"/>
+      <c r="B175" s="5"/>
+      <c r="C175" s="5"/>
     </row>
     <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="B176" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>490</v>
-      </c>
+      <c r="A176" s="5"/>
+      <c r="B176" s="5"/>
+      <c r="C176" s="5"/>
     </row>
     <row r="177" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>493</v>
-      </c>
+      <c r="A177" s="5"/>
+      <c r="B177" s="5"/>
+      <c r="C177" s="5"/>
     </row>
     <row r="178" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>496</v>
-      </c>
+      <c r="A178" s="5"/>
+      <c r="B178" s="5"/>
+      <c r="C178" s="5"/>
     </row>
     <row r="179" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>498</v>
-      </c>
+      <c r="A179" s="5"/>
+      <c r="B179" s="5"/>
+      <c r="C179" s="5"/>
     </row>
     <row r="180" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="C180" s="5" t="s">
-        <v>501</v>
-      </c>
+      <c r="A180" s="5"/>
+      <c r="B180" s="5"/>
+      <c r="C180" s="5"/>
     </row>
     <row r="181" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="C181" s="5" t="s">
-        <v>504</v>
-      </c>
+      <c r="A181" s="5"/>
+      <c r="B181" s="5"/>
+      <c r="C181" s="5"/>
     </row>
     <row r="182" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C182" s="5" t="s">
-        <v>506</v>
-      </c>
+      <c r="A182" s="5"/>
+      <c r="B182" s="5"/>
+      <c r="C182" s="5"/>
     </row>
     <row r="183" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="C183" s="5" t="s">
-        <v>509</v>
-      </c>
+      <c r="A183" s="5"/>
+      <c r="B183" s="5"/>
+      <c r="C183" s="5"/>
     </row>
     <row r="184" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="B184" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="C184" s="5" t="s">
-        <v>512</v>
-      </c>
+      <c r="A184" s="5"/>
+      <c r="B184" s="5"/>
+      <c r="C184" s="5"/>
     </row>
     <row r="185" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="B185" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="C185" s="5" t="s">
-        <v>515</v>
-      </c>
+      <c r="A185" s="5"/>
+      <c r="B185" s="5"/>
+      <c r="C185" s="5"/>
     </row>
     <row r="186" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="C186" s="5" t="s">
-        <v>518</v>
-      </c>
+      <c r="A186" s="5"/>
+      <c r="B186" s="5"/>
+      <c r="C186" s="5"/>
     </row>
     <row r="187" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>521</v>
-      </c>
+      <c r="A187" s="5"/>
+      <c r="B187" s="5"/>
+      <c r="C187" s="5"/>
     </row>
     <row r="188" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="B188" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C188" s="5" t="s">
-        <v>523</v>
-      </c>
+      <c r="A188" s="5"/>
+      <c r="B188" s="5"/>
+      <c r="C188" s="5"/>
     </row>
     <row r="189" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="C189" s="5" t="s">
-        <v>525</v>
-      </c>
+      <c r="A189" s="5"/>
+      <c r="B189" s="5"/>
+      <c r="C189" s="5"/>
     </row>
     <row r="190" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="B190" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="C190" s="5" t="s">
-        <v>528</v>
-      </c>
+      <c r="A190" s="5"/>
+      <c r="B190" s="5"/>
+      <c r="C190" s="5"/>
     </row>
     <row r="191" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="B191" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="C191" s="5" t="s">
-        <v>531</v>
-      </c>
+      <c r="A191" s="5"/>
+      <c r="B191" s="5"/>
+      <c r="C191" s="5"/>
     </row>
     <row r="192" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="B192" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C192" s="5" t="s">
-        <v>533</v>
-      </c>
+      <c r="A192" s="5"/>
+      <c r="B192" s="5"/>
+      <c r="C192" s="5"/>
     </row>
     <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="B193" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C193" s="5" t="s">
-        <v>535</v>
-      </c>
+      <c r="A193" s="5"/>
+      <c r="B193" s="5"/>
+      <c r="C193" s="5"/>
     </row>
     <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="B194" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="C194" s="5" t="s">
-        <v>538</v>
-      </c>
+      <c r="A194" s="5"/>
+      <c r="B194" s="5"/>
+      <c r="C194" s="5"/>
     </row>
     <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="B195" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="C195" s="5" t="s">
-        <v>541</v>
-      </c>
+      <c r="A195" s="5"/>
+      <c r="B195" s="5"/>
+      <c r="C195" s="5"/>
     </row>
     <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="B196" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="C196" s="5" t="s">
-        <v>544</v>
-      </c>
+      <c r="A196" s="5"/>
+      <c r="B196" s="5"/>
+      <c r="C196" s="5"/>
     </row>
     <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="B197" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="C197" s="5" t="s">
-        <v>547</v>
-      </c>
+      <c r="A197" s="5"/>
+      <c r="B197" s="5"/>
+      <c r="C197" s="5"/>
     </row>
     <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="B198" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C198" s="5" t="s">
-        <v>549</v>
-      </c>
+      <c r="A198" s="5"/>
+      <c r="B198" s="5"/>
+      <c r="C198" s="5"/>
     </row>
     <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C199" s="5" t="s">
-        <v>551</v>
-      </c>
+      <c r="A199" s="5"/>
+      <c r="B199" s="5"/>
+      <c r="C199" s="5"/>
     </row>
     <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="B200" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C200" s="5" t="s">
-        <v>553</v>
-      </c>
+      <c r="A200" s="5"/>
+      <c r="B200" s="5"/>
+      <c r="C200" s="5"/>
     </row>
     <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="B201" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C201" s="5" t="s">
-        <v>555</v>
-      </c>
+      <c r="A201" s="5"/>
+      <c r="B201" s="5"/>
+      <c r="C201" s="5"/>
     </row>
     <row r="202" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="5"/>
